--- a/medicine/Psychotrope/Gambetta_(boisson)/Gambetta_(boisson).xlsx
+++ b/medicine/Psychotrope/Gambetta_(boisson)/Gambetta_(boisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gambetta est un sirop, donc une boisson non alcoolisée, d'origine provençale ancienne, que l'on trouve principalement dans le sud de la France.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gambetta que l'on trouve dans le commerce est fabriqué par la distillerie Janot, à Aubagne. Plusieurs boissons sans alcool sont produites par la distillerie dont le gambetta classique et le gambetta Bitter[1]. Le gambetta est maintenant produit par la distillerie Terroirs Distillers, à Jonquières dans le Vaucluse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gambetta que l'on trouve dans le commerce est fabriqué par la distillerie Janot, à Aubagne. Plusieurs boissons sans alcool sont produites par la distillerie dont le gambetta classique et le gambetta Bitter. Le gambetta est maintenant produit par la distillerie Terroirs Distillers, à Jonquières dans le Vaucluse.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est obtenu par macération de plantes, de fruits et d'écorces de plantes (une cinquantaine dont la figue, la mandarine, la gentiane) et additionné de caramel, sucre, acide citrique, sirop de glucose, sirop de fructose.
 </t>
@@ -574,7 +590,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gambetta se consomme allongé d'eau plate ou gazeuse, de limonade, de bière ou de lait. 
 Il fait un excellent apéritif avec du vin rosé ou blanc.
